--- a/biology/Zoologie/Ingerophrynus_divergens/Ingerophrynus_divergens.xlsx
+++ b/biology/Zoologie/Ingerophrynus_divergens/Ingerophrynus_divergens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingerophrynus divergens est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingerophrynus divergens est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 700 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 700 m d'altitude :
 en Indonésie dans le centre et l'Est de Sumatra, aux îles Natuna et au Kalimantan ;
 en Malaisie orientale ;
 au Brunei.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles mesurent de 28 à 43 mm et les femelles de 36 à 55 mm.
 </t>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1871 : Über neue Reptilien aus Ostafrica und Sarawak (Borneo), vorzüglich aus der Sammlung des Hrn. Marquis J. Doria zu Genua. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1, p. 566-581 (texte intégral).</t>
         </is>
